--- a/UnitTests/Tests/CapletVolatility.xlsx
+++ b/UnitTests/Tests/CapletVolatility.xlsx
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>IF(B3=C3,"PASS","FAIL")</f>
+        <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E3">
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f t="shared" ref="D4:D41" si="0">IF(B4=C4,"PASS","FAIL")</f>
+        <f t="shared" ref="D4:D41" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
       <c r="E4">
@@ -743,7 +743,7 @@
       </c>
       <c r="G10" t="str">
         <f>_xll.qlFlatForward(,2,"target",1,"actual/360","continuous","annual")</f>
-        <v>obj_00001#0000</v>
+        <v>obj_00011#0000</v>
       </c>
       <c r="J10">
         <f>_xll.qlSettingsEvaluationDate()</f>
@@ -767,7 +767,7 @@
       </c>
       <c r="G11" t="str">
         <f>_xll.qlIborIndex(,"euribor","1Y",2,"eur","target","mf",TRUE,"actual/360",G10)</f>
-        <v>obj_00002#0000</v>
+        <v>obj_00014#0000</v>
       </c>
       <c r="J11">
         <f>J10+1</f>
@@ -879,9 +879,9 @@
       <c r="B16" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D16" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E16" t="e">
         <f>_xll.qlStrippedOptionletBaseAtmOptionletRates(E11)</f>
@@ -983,9 +983,9 @@
       <c r="B22" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D22" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E22" t="e">
         <f>_xll.qlOptionletStripperOptionletPaymentDates(E28)</f>
@@ -999,9 +999,9 @@
       <c r="B23" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D23" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E23" t="e">
         <f>_xll.qlOptionletStripperOptionletAccrualPeriods(E28)</f>
@@ -1015,9 +1015,9 @@
       <c r="B24" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D24" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E24" t="e">
         <f>_xll.qlOptionletStripper1CapFloorPrices(E28)</f>
@@ -1031,9 +1031,9 @@
       <c r="B25" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D25" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E25" t="e">
         <f>_xll.qlOptionletStripper1CapFloorVolatilities(E28)</f>
@@ -1047,9 +1047,9 @@
       <c r="B26" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D26" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E26" t="e">
         <f>_xll.qlOptionletStripper1OptionletPrices(E28)</f>
@@ -1063,9 +1063,9 @@
       <c r="B27" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D27" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E27" t="e">
         <f>_xll.qlOptionletStripper1SwitchStrike(E28)</f>
@@ -1095,9 +1095,9 @@
       <c r="B29" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D29" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E29" t="e">
         <f>_xll.qlOptionletStripper2SpreadsVol(E32)</f>
@@ -1111,9 +1111,9 @@
       <c r="B30" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D30" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E30" t="e">
         <f>_xll.qlOptionletStripper2AtmCapFloorPrices(E32)</f>
@@ -1127,9 +1127,9 @@
       <c r="B31" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="D31" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ERROR</v>
       </c>
       <c r="E31" t="e">
         <f>_xll.qlOptionletStripper2AtmCapFloorStrikes(E32)</f>

--- a/UnitTests/Tests/CapletVolatility.xlsx
+++ b/UnitTests/Tests/CapletVolatility.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\reposit\QuantLibXL\UnitTests\Tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="UNIT_TEST" localSheetId="0">Sheet1!$A$3:$E$41</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -213,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]dd\-mmm\-yyyy;@"/>
   </numFmts>
@@ -274,12 +279,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -321,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,9 +362,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,6 +414,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,7 +606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L41"/>
   <sheetViews>
@@ -573,7 +615,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -625,9 +667,9 @@
         <f>IF(ISERROR(B3),"ERROR",IF(ISERROR(C3),"FAIL",IF(B3=C3,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E3">
-        <f>_xll.qlOptionletVTSVolatility(E8,J17,1,TRUE)</f>
-        <v>1</v>
+      <c r="E3" t="e">
+        <f ca="1">_xll.qlOptionletVTSVolatility(E8,J17,1,TRUE)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -641,9 +683,9 @@
         <f t="shared" ref="D4:D41" si="0">IF(ISERROR(B4),"ERROR",IF(ISERROR(C4),"FAIL",IF(B4=C4,"PASS","FAIL")))</f>
         <v>FAIL</v>
       </c>
-      <c r="E4">
-        <f>_xll.qlOptionletVTSVolatility2(E8,"1Y",1,TRUE)</f>
-        <v>1</v>
+      <c r="E4" t="e">
+        <f ca="1">_xll.qlOptionletVTSVolatility2(E8,"1Y",1,TRUE)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -657,9 +699,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E5">
-        <f>_xll.qlOptionletVTSBlackVariance(E8,J17,1,TRUE)</f>
-        <v>1.1111111111111112E-2</v>
+      <c r="E5" t="e">
+        <f ca="1">_xll.qlOptionletVTSBlackVariance(E8,J17,1,TRUE)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -673,9 +715,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E6">
-        <f>_xll.qlOptionletVTSBlackVariance2(E8,"1Y",1,TRUE)</f>
-        <v>1.0138888888888888</v>
+      <c r="E6" t="e">
+        <f ca="1">_xll.qlOptionletVTSBlackVariance2(E8,"1Y",1,TRUE)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -689,9 +731,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E7" t="str">
-        <f>_xll.qlRelinkableHandleOptionletVolatilityStructure("cv01")</f>
-        <v>cv01#0000</v>
+      <c r="E7" t="e">
+        <f ca="1">_xll.qlRelinkableHandleOptionletVolatilityStructure("cv01")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -705,9 +747,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E8" t="str">
-        <f>_xll.qlConstantOptionletVolatility("cv02",2,"target","mf",1,"actual/360","normal",0)</f>
-        <v>cv02#0000</v>
+      <c r="E8" t="e">
+        <f ca="1">_xll.qlConstantOptionletVolatility("cv02",2,"target","mf",1,"actual/360","normal",0)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -721,9 +763,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E9" s="4" t="str">
-        <f>_xll.qlSpreadedOptionletVolatility("cv03",E8,1)</f>
-        <v>cv03#0000</v>
+      <c r="E9" s="4" t="e">
+        <f ca="1">_xll.qlSpreadedOptionletVolatility("cv03",E8,1)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -737,17 +779,17 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E10" t="str">
-        <f>_xll.qlStrippedOptionletAdapter("cv04",E11)</f>
-        <v>cv04#0000</v>
-      </c>
-      <c r="G10" t="str">
-        <f>_xll.qlFlatForward(,2,"target",1,"actual/360","continuous","annual")</f>
-        <v>obj_00011#0000</v>
-      </c>
-      <c r="J10">
-        <f>_xll.qlSettingsEvaluationDate()</f>
-        <v>42644</v>
+      <c r="E10" t="e">
+        <f ca="1">_xll.qlStrippedOptionletAdapter("cv04",E11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G10" t="e">
+        <f ca="1">_xll.qlFlatForward(,2,"target",1,"actual/360","continuous","annual")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J10" t="e">
+        <f ca="1">_xll.qlSettingsEvaluationDate()</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -761,17 +803,17 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E11" t="str">
-        <f>_xll.qlStrippedOptionlet("cv05",2,"target","mf",G11,J11:J13,+K11+K11:K11:K13,L11:L13,"actual/360","normal",0)</f>
-        <v>cv05#0000</v>
-      </c>
-      <c r="G11" t="str">
-        <f>_xll.qlIborIndex(,"euribor","1Y",2,"eur","target","mf",TRUE,"actual/360",G10)</f>
-        <v>obj_00014#0000</v>
-      </c>
-      <c r="J11">
-        <f>J10+1</f>
-        <v>42645</v>
+      <c r="E11" t="e">
+        <f ca="1">_xll.qlStrippedOptionlet("cv05",2,"target","mf",G11,J11:J13,+K11+K11:K11:K13,L11:L13,"actual/360","normal",0)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G11" t="e">
+        <f ca="1">_xll.qlIborIndex(,"euribor","1Y",2,"eur","target","mf",TRUE,"actual/360",G10)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J11" t="e">
+        <f ca="1">J10+1</f>
+        <v>#NAME?</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -791,13 +833,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E12">
-        <f>_xll.qlStrippedOptionletBaseStrikes(E11)</f>
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ref="J12:J17" si="1">J11+1</f>
-        <v>42646</v>
+      <c r="E12" t="e">
+        <f ca="1">_xll.qlStrippedOptionletBaseStrikes(E11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J12" t="e">
+        <f t="shared" ref="J12:J17" ca="1" si="1">J11+1</f>
+        <v>#NAME?</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -817,13 +859,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E13">
-        <f>_xll.qlStrippedOptionletBaseOptionletVolatilities(E11)</f>
-        <v>4</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>42647</v>
+      <c r="E13" t="e">
+        <f ca="1">_xll.qlStrippedOptionletBaseOptionletVolatilities(E11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J13" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -843,13 +885,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E14">
-        <f>_xll.qlStrippedOptionletBaseOptionletFixingDates(E11)</f>
-        <v>42645</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>42648</v>
+      <c r="E14" t="e">
+        <f ca="1">_xll.qlStrippedOptionletBaseOptionletFixingDates(E11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J14" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -863,13 +905,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E15">
-        <f>_xll.qlStrippedOptionletBaseOptionletFixingTimes(E11)</f>
-        <v>-5.5555555555555558E-3</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>42649</v>
+      <c r="E15" t="e">
+        <f ca="1">_xll.qlStrippedOptionletBaseOptionletFixingTimes(E11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J15" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -884,12 +926,12 @@
         <v>ERROR</v>
       </c>
       <c r="E16" t="e">
-        <f>_xll.qlStrippedOptionletBaseAtmOptionletRates(E11)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>42650</v>
+        <f ca="1">_xll.qlStrippedOptionletBaseAtmOptionletRates(E11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J16" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -903,13 +945,13 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E17" t="str">
-        <f>_xll.qlStrippedOptionletBaseDayCounter(E11)</f>
-        <v>Actual/360</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>42651</v>
+      <c r="E17" t="e">
+        <f ca="1">_xll.qlStrippedOptionletBaseDayCounter(E11)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J17" t="e">
+        <f t="shared" ca="1" si="1"/>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -923,9 +965,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E18" t="str">
-        <f>_xll.qlStrippedOptionletBaseCalendar(E11)</f>
-        <v>TARGET</v>
+      <c r="E18" t="e">
+        <f ca="1">_xll.qlStrippedOptionletBaseCalendar(E11)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -939,9 +981,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E19">
-        <f>_xll.qlStrippedOptionletBaseSettlementDays(E11)</f>
-        <v>2</v>
+      <c r="E19" t="e">
+        <f ca="1">_xll.qlStrippedOptionletBaseSettlementDays(E11)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -955,9 +997,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E20" t="str">
-        <f>_xll.qlStrippedOptionletBaseBusinessDayConvention(E11)</f>
-        <v>Modified Following</v>
+      <c r="E20" t="e">
+        <f ca="1">_xll.qlStrippedOptionletBaseBusinessDayConvention(E11)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -971,9 +1013,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E21" t="str">
-        <f>_xll.qlOptionletStripperOptionletFixingTenors(E28)</f>
-        <v>1Y</v>
+      <c r="E21" t="e">
+        <f ca="1">_xll.qlOptionletStripperOptionletFixingTenors(E28)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -988,8 +1030,8 @@
         <v>ERROR</v>
       </c>
       <c r="E22" t="e">
-        <f>_xll.qlOptionletStripperOptionletPaymentDates(E28)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlOptionletStripperOptionletPaymentDates(E28)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1004,8 +1046,8 @@
         <v>ERROR</v>
       </c>
       <c r="E23" t="e">
-        <f>_xll.qlOptionletStripperOptionletAccrualPeriods(E28)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlOptionletStripperOptionletAccrualPeriods(E28)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1020,8 +1062,8 @@
         <v>ERROR</v>
       </c>
       <c r="E24" t="e">
-        <f>_xll.qlOptionletStripper1CapFloorPrices(E28)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlOptionletStripper1CapFloorPrices(E28)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1036,8 +1078,8 @@
         <v>ERROR</v>
       </c>
       <c r="E25" t="e">
-        <f>_xll.qlOptionletStripper1CapFloorVolatilities(E28)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlOptionletStripper1CapFloorVolatilities(E28)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1052,8 +1094,8 @@
         <v>ERROR</v>
       </c>
       <c r="E26" t="e">
-        <f>_xll.qlOptionletStripper1OptionletPrices(E28)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlOptionletStripper1OptionletPrices(E28)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1068,8 +1110,8 @@
         <v>ERROR</v>
       </c>
       <c r="E27" t="e">
-        <f>_xll.qlOptionletStripper1SwitchStrike(E28)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlOptionletStripper1SwitchStrike(E28)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1083,9 +1125,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E28" t="str">
-        <f>_xll.qlOptionletStripper1("cv06",E41,G11)</f>
-        <v>cv06#0000</v>
+      <c r="E28" t="e">
+        <f ca="1">_xll.qlOptionletStripper1("cv06",E41,G11)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1100,8 +1142,8 @@
         <v>ERROR</v>
       </c>
       <c r="E29" t="e">
-        <f>_xll.qlOptionletStripper2SpreadsVol(E32)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlOptionletStripper2SpreadsVol(E32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1116,8 +1158,8 @@
         <v>ERROR</v>
       </c>
       <c r="E30" t="e">
-        <f>_xll.qlOptionletStripper2AtmCapFloorPrices(E32)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlOptionletStripper2AtmCapFloorPrices(E32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1132,8 +1174,8 @@
         <v>ERROR</v>
       </c>
       <c r="E31" t="e">
-        <f>_xll.qlOptionletStripper2AtmCapFloorStrikes(E32)</f>
-        <v>#NUM!</v>
+        <f ca="1">_xll.qlOptionletStripper2AtmCapFloorStrikes(E32)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1147,9 +1189,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E32" t="str">
-        <f>_xll.qlOptionletStripper2("cv07",E28,E37)</f>
-        <v>cv07#0000</v>
+      <c r="E32" t="e">
+        <f ca="1">_xll.qlOptionletStripper2("cv07",E28,E37)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1163,9 +1205,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E33">
-        <f>_xll.qlCapFloorTermVTSVolatility(E37,J17,1,TRUE)</f>
-        <v>1.0958904109588663E-2</v>
+      <c r="E33" t="e">
+        <f ca="1">_xll.qlCapFloorTermVTSVolatility(E37,J17,1,TRUE)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1179,9 +1221,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E34">
-        <f>_xll.qlCapFloorTermVTSVolatility2(E37,"1Y",1,TRUE)</f>
-        <v>1</v>
+      <c r="E34" t="e">
+        <f ca="1">_xll.qlCapFloorTermVTSVolatility2(E37,"1Y",1,TRUE)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1195,9 +1237,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E35" t="str">
-        <f>_xll.qlCapFloorTermVolCurveOptionTenors(E37)</f>
-        <v>1Y</v>
+      <c r="E35" t="e">
+        <f ca="1">_xll.qlCapFloorTermVolCurveOptionTenors(E37)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1211,9 +1253,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E36">
-        <f>_xll.qlCapFloorTermVolCurveOptionDates(E37)</f>
-        <v>43012</v>
+      <c r="E36" t="e">
+        <f ca="1">_xll.qlCapFloorTermVolCurveOptionDates(E37)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1227,9 +1269,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E37" t="str">
-        <f>_xll.qlCapFloorTermVolCurve("cv08",2,"target","mf",G37:G39,H37:H39,"actual/360")</f>
-        <v>cv08#0000</v>
+      <c r="E37" t="e">
+        <f ca="1">_xll.qlCapFloorTermVolCurve("cv08",2,"target","mf",G37:G39,H37:H39,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
       <c r="G37" t="s">
         <v>47</v>
@@ -1258,9 +1300,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E38" t="str">
-        <f>_xll.qlCapFloorTermVolSurfaceOptionTenors(E41)</f>
-        <v>1Y</v>
+      <c r="E38" t="e">
+        <f ca="1">_xll.qlCapFloorTermVolSurfaceOptionTenors(E41)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G38" t="s">
         <v>48</v>
@@ -1289,9 +1331,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E39">
-        <f>_xll.qlCapFloorTermVolSurfaceOptionDates(E41)</f>
-        <v>43012</v>
+      <c r="E39" t="e">
+        <f ca="1">_xll.qlCapFloorTermVolSurfaceOptionDates(E41)</f>
+        <v>#NAME?</v>
       </c>
       <c r="G39" t="s">
         <v>49</v>
@@ -1320,9 +1362,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E40">
-        <f>_xll.qlCapFloorTermVolSurfaceStrikes(E41)</f>
-        <v>1</v>
+      <c r="E40" t="e">
+        <f ca="1">_xll.qlCapFloorTermVolSurfaceStrikes(E41)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1336,9 +1378,9 @@
         <f t="shared" si="0"/>
         <v>FAIL</v>
       </c>
-      <c r="E41" t="str">
-        <f>_xll.qlCapFloorTermVolSurface("cv09",2,"target","mf",G37:G39,H37:H39,I37:K39,"actual/360")</f>
-        <v>cv09#0000</v>
+      <c r="E41" t="e">
+        <f ca="1">_xll.qlCapFloorTermVolSurface("cv09",2,"target","mf",G37:G39,H37:H39,I37:K39,"actual/360")</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -1348,26 +1390,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
